--- a/Employee_Reports35/Clint Jude Duarte Bicoy Q0365.xlsx
+++ b/Employee_Reports35/Clint Jude Duarte Bicoy Q0365.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1519,151 +1519,139 @@
       <c r="K22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>24-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>24-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>-103</v>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>IMS</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>LSME-IMS-SOP-021</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>22-Mar-2025</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>22-Mar-2026</t>
         </is>
       </c>
-      <c r="H23" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="H24" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-030</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>18-Sep-2024</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>18-Sep-2025</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>-46</v>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="H25" s="4" t="n">
+        <v>-47</v>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>138</v>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1671,28 +1659,40 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2025</t>
+          <t>21-Mar-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2026</t>
+          <t>21-Mar-2026</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1708,24 +1708,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
           <t>05-Apr-2025</t>
@@ -1737,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1757,7 +1745,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1767,7 +1755,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-003</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1777,20 +1765,20 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1806,7 +1794,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1816,7 +1804,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1835,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1855,7 +1843,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1865,7 +1853,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1884,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1904,28 +1892,40 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr"/>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-011</t>
+          <t>LSME-CRG-SOP-001</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1961,20 +1961,20 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1990,40 +1990,28 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-018</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>18-Oct-2025</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>18-Oct-2026</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2039,36 +2027,134 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>606</v>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Clint Jude Duarte Bicoy Q0365.xlsx
+++ b/Employee_Reports35/Clint Jude Duarte Bicoy Q0365.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,20 +1004,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2027</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,20 +1053,20 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>358</v>
+        <v>714</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1420,53 +1420,53 @@
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>08-Oct-2024</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>08-Oct-2025</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>-27</v>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Diagnosis Of Beckoff Module And Troubleshooting Guide (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-012</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>21-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>21-Oct-2027</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>715</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
@@ -1474,18 +1474,17 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
+          <t>LOTO (SOPs)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-031</t>
+          <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
@@ -1495,20 +1494,20 @@
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>06-Jun-2024</t>
+          <t>08-Oct-2024</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>06-Jun-2025</t>
+          <t>08-Oct-2025</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-151</v>
+        <v>-28</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1524,183 +1523,184 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>06-Jun-2024</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>06-Jun-2025</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>-152</v>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr"/>
-      <c r="D23" s="4" t="inlineStr"/>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>24-Jul-2024</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>24-Jul-2025</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="H24" s="4" t="n">
+        <v>-104</v>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>IMS</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>LSME-IMS-SOP-021</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>22-Mar-2025</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>22-Mar-2026</t>
         </is>
       </c>
-      <c r="H24" s="3" t="n">
-        <v>138</v>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="H25" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-030</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>18-Sep-2024</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>18-Sep-2025</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>-47</v>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="H26" s="4" t="n">
+        <v>-48</v>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K25" s="4" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>21-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1708,28 +1708,40 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2025</t>
+          <t>21-Mar-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2026</t>
+          <t>21-Mar-2026</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1745,24 +1757,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr">
         <is>
           <t>05-Apr-2025</t>
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-003</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1814,20 +1814,20 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-001</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1970,11 +1970,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1990,28 +1990,40 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2027,40 +2039,28 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>18-Oct-2025</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>18-Oct-2026</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-011</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -2105,11 +2105,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2125,36 +2125,85 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H36" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
